--- a/Assets/Resources/Data/EnemyData.xlsx
+++ b/Assets/Resources/Data/EnemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ME\Documents\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hynmi\Documents\GitHub\test\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{306CD322-8D43-4FA9-B755-63B7AFDB191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF4FD82-D012-4844-8DB2-739B0ABBD8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DB0E8903-C12E-4857-BBB8-889064151F86}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DB0E8903-C12E-4857-BBB8-889064151F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,398 @@
   </si>
   <si>
     <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peasant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Believer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pagan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shielder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repairer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 6 / 방어 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 6 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 7 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 10 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 4 X 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 10 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 11 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 5 X 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 8 / 방어 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 14 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 4 X 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 회복 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 12 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 5 X 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 14 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 13 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 7 X 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 16 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 10 / 방어 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 16 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 5 X 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 2 X 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 회복 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어 20 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 20 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 15 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 8 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 4 X 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 7 / 방어 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 6 X 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 9 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 10 / 방어 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 13 / 방어 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 18 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 8 /??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 3 X 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 5 X 2 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 3 X 3 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 3 X 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 6 X 2 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 3 X 4 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 17 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 3 X 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 6 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 회복 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 회복 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 6 / 방어 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 8 / 방어 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 10 / 방어 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 30 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 2 X 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 8 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 12 / ??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 4 X 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,441 +847,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AAC39-F0D4-47A2-BDFF-D9F427003560}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>22</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>38</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>36</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>27</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>55</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>53</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
         <v>41</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>35</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>101</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>102</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>22</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
         <v>8</v>
@@ -897,550 +1373,664 @@
       <c r="I15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>103</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>16</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>111</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>31</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>36</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>28</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>121</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>46</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>51</v>
       </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>122</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>51</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>123</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>40</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>45</v>
       </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>201</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>20</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>202</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>24</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>27</v>
       </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>203</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>211</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>30</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>34</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>212</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>39</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>43</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>213</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>221</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>45</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>222</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>56</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>61</v>
       </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>223</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>39</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>301</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>11</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>22</v>
       </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>302</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>21</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>24</v>
       </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>303</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>19</v>
       </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
         <v>8</v>
@@ -1448,439 +2038,535 @@
       <c r="I34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>311</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>29</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>33</v>
       </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>312</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>32</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>36</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="I36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>313</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>26</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>321</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>43</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>48</v>
       </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="J38" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>322</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>46</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>51</v>
       </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J39" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>323</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>39</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>44</v>
       </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="J40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>401</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>12</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>21</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>24</v>
       </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="H41" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>402</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>12</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>23</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>26</v>
       </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
       <c r="G42" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="I42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>403</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>17</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>20</v>
       </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="I43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>411</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>32</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>36</v>
       </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="I44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>412</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>37</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>41</v>
       </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="I45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>413</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>29</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>33</v>
       </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="I46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>421</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>46</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>51</v>
       </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="I47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>422</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>52</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>57</v>
       </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="I48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>110</v>
+      </c>
+      <c r="K48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>423</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>29</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>33</v>
       </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assets/Resources/Data/EnemyData.xlsx
+++ b/Assets/Resources/Data/EnemyData.xlsx
@@ -1,552 +1,1048 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hynmi\Documents\GitHub\test\capstone-2023-03\Assets\Resources\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF4FD82-D012-4844-8DB2-739B0ABBD8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.165.50235"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DB0E8903-C12E-4857-BBB8-889064151F86}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>minHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pat1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pat2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pat3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pirate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Druids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Saintess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mecha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fighter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Knight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Peasant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Priest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dealer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Supporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bird</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Believer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bruth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pagan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attacker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shielder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Repairer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 6 / 방어 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 6 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 7 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 10 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 4 X 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 10 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 11 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 5 X 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 8 / 방어 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 14 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 4 X 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 회복 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 방어 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 12 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 5 X 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 14 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 13 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 7 X 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 16 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 10 / 방어 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 16 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 5 X 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 2 X 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 회복 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 방어 20 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 20 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 15 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 8 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 4 X 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 7 / 방어 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 방어 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 6 X 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 9 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 10 / 방어 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 13 / 방어 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 18 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 방어 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 8 /??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 3 X 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 5 X 2 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 3 X 3 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 3 X 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 6 X 2 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 3 X 4 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회복 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 17 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 3 X 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 6 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 회복 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 회복 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 6 / 방어 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 8 / 방어 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 10 / 방어 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회복 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 30 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 2 X 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 8 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 12 / ??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방어 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공격 4 X 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회복 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PariteBoss</t>
+  </si>
+  <si>
+    <t>DruidBoss</t>
+  </si>
+  <si>
+    <t>PriestBoss</t>
+  </si>
+  <si>
+    <t>MechanicBoss</t>
+  </si>
+  <si>
+    <t>Druid</t>
+  </si>
+  <si>
+    <t>PirateBoss</t>
+  </si>
+  <si>
+    <t>"PirateBoss"</t>
+  </si>
+  <si>
+    <t>공격 ?</t>
+  </si>
+  <si>
+    <t>LastBoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 ? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="21">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <color rgb="FFCE9178"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -846,1922 +1342,2189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668AAC39-F0D4-47A2-BDFF-D9F427003560}">
-  <dimension ref="A1:K49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A45" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62:K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0">
         <v>22</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="I2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="I4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="0">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0">
         <v>38</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="J5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="0">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0">
         <v>36</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="J6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="0">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="K7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="0">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="J8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="0">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0">
         <v>55</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>60</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="K9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="0">
         <v>53</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="K10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="0">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="0">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="K11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="0">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="0">
         <v>41</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="K12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="0">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="0">
         <v>35</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="K13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="K13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="0">
         <v>101</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>22</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="I14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="0">
         <v>102</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>22</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>25</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="H15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="0">
         <v>103</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="I16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="0">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>31</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>35</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="J17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="0">
         <v>112</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>36</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="I18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="0">
         <v>113</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>28</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>32</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="J19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="J19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="0">
         <v>121</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>46</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>51</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="K20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="0">
         <v>122</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>51</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>56</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="J21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="J21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="0">
         <v>123</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>40</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>45</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="K22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="0">
         <v>201</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="0">
         <v>20</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>23</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="I23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="0">
         <v>202</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="0">
         <v>24</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="I24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="0">
         <v>203</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="0">
         <v>14</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>17</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="I25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="0">
         <v>211</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="0">
         <v>30</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>34</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="J26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="J26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="0">
         <v>212</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="0">
         <v>39</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>43</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="J27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="J27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="0">
         <v>213</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="0">
         <v>26</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>30</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="J28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="J28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="0">
         <v>221</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="0">
         <v>45</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>50</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="K29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="K29" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="0">
         <v>222</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="0">
         <v>56</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>61</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="K30" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="0">
         <v>223</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="0">
         <v>39</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>44</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="K31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="0">
         <v>301</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>19</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>22</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="I32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="0">
         <v>302</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>21</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>24</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="I33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="0">
         <v>303</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>16</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>19</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="H34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="0">
         <v>311</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>29</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>33</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="J35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="J35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="0">
         <v>312</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>32</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>36</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="J36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="0">
         <v>313</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>26</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>30</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="I37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="0">
         <v>321</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>43</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>48</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="K38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="K38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="0">
         <v>322</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>46</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>51</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="K39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="K39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="0">
         <v>323</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>39</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>44</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="J40" t="s">
-        <v>8</v>
-      </c>
-      <c r="K40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="J40" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="0">
         <v>401</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>21</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="I41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="0">
         <v>402</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>23</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>26</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="I42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="0">
         <v>403</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>17</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>20</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="I43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="0">
         <v>411</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>2</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>32</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>36</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="J44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="0">
         <v>412</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>37</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>41</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J45" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="J45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="0">
         <v>413</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>2</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>29</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>33</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J46" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="J46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="0">
         <v>421</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>46</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>51</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="K47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="K47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="0">
         <v>422</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>52</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>57</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="K48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="0">
         <v>423</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>29</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>33</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="0">
+        <v>1001</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="0">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="0">
+        <v>100</v>
+      </c>
+      <c r="F50" s="0">
+        <v>100</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="0">
+        <v>1002</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="0">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="0">
+        <v>100</v>
+      </c>
+      <c r="F51" s="0">
+        <v>100</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="0">
+        <v>1003</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="0">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="0">
+        <v>100</v>
+      </c>
+      <c r="F52" s="0">
+        <v>100</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="0">
+        <v>1004</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="0">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="0">
+        <v>100</v>
+      </c>
+      <c r="F53" s="0">
+        <v>100</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="0">
+        <v>1011</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="0">
+        <v>2</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="0">
+        <v>200</v>
+      </c>
+      <c r="F54" s="0">
+        <v>200</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="0">
+        <v>1012</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="0">
+        <v>2</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="0">
+        <v>200</v>
+      </c>
+      <c r="F55" s="0">
+        <v>200</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="0">
+        <v>1013</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="0">
+        <v>2</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="0">
+        <v>200</v>
+      </c>
+      <c r="F56" s="0">
+        <v>200</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="0">
+        <v>1014</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="0">
+        <v>2</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="0">
+        <v>200</v>
+      </c>
+      <c r="F57" s="0">
+        <v>200</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="0">
+        <v>1021</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="0">
+        <v>3</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="0">
+        <v>300</v>
+      </c>
+      <c r="F58" s="0">
+        <v>300</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="0">
+        <v>1022</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="0">
+        <v>3</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="0">
+        <v>300</v>
+      </c>
+      <c r="F59" s="0">
+        <v>300</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="0">
+        <v>1023</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="0">
+        <v>3</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="0">
+        <v>300</v>
+      </c>
+      <c r="F60" s="0">
+        <v>300</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="0">
+        <v>1024</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="0">
+        <v>3</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="0">
+        <v>300</v>
+      </c>
+      <c r="F61" s="0">
+        <v>300</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="0">
+        <v>2000</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="0">
+        <v>4</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="0">
+        <v>400</v>
+      </c>
+      <c r="F62" s="0">
+        <v>400</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="0" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100D0EF01A8EA6A5643B35ED8C46D142B42" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="30d4e5375d5ff332e1b65988144cf551">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="32541767-4e08-4a9b-bbfb-4359b7e2f507" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f11299fe8c8fb8a83946e0fd20714c88" ns3:_="">
-    <xsd:import namespace="32541767-4e08-4a9b-bbfb-4359b7e2f507"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32541767-4e08-4a9b-bbfb-4359b7e2f507" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD4B530-1D44-47DD-9303-FC3F809E9754}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="32541767-4e08-4a9b-bbfb-4359b7e2f507"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF4BF5DF-03F0-4A93-9A38-0FD34568AD7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9008727E-803D-4A14-B454-CD8EADC8BB85}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="32541767-4e08-4a9b-bbfb-4359b7e2f507"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assets/Resources/Data/EnemyData.xlsx
+++ b/Assets/Resources/Data/EnemyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>index</t>
   </si>
@@ -388,6 +388,24 @@
   </si>
   <si>
     <t xml:space="preserve">공격 ? </t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Boom</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Regen</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Sal</t>
   </si>
 </sst>
 </file>
@@ -1345,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62:K62"/>
+    <sheetView topLeftCell="A33" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1943,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1978,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2048,7 +2066,7 @@
         <v>46</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2083,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2118,7 +2136,7 @@
         <v>77</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2258,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2293,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2363,7 +2381,7 @@
         <v>90</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2398,7 +2416,7 @@
         <v>38</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2643,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2748,7 +2766,7 @@
         <v>8</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:11">
